--- a/CH-168 Custom Grouping.xlsx
+++ b/CH-168 Custom Grouping.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AF571C-5B03-4C86-9679-65A4BD7E1E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AA687-2205-4C73-A481-53B93666C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Question</t>
   </si>
@@ -288,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +392,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,6 +834,147 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>670869</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660F6237-143B-4786-B84D-9A402D7AE28B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1570029" y="2399526"/>
+          <a:ext cx="327604" cy="645676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1467308</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1800960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6E33B2-0CB2-47D4-BB6E-C3CD0880DD7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4713428" y="409094"/>
+          <a:ext cx="158392" cy="626626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Basis">
   <a:themeElements>
@@ -1050,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1619,4 +1785,1146 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CB0D0-CE2C-4F92-B5C0-350EC7F67489}">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="E1"/>
+      <c r="G1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="19">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="H3" s="25">
+        <v>47</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="19">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="H4" s="25">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="2" cm="1">
+        <f t="array" ref="L4:L27">_xlfn.SCAN(C3+1,C3:C26,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,MIN(_xlpm.a,_xlpm.v)))</f>
+        <v>47</v>
+      </c>
+      <c r="M4" s="35" cm="1">
+        <f t="array" ref="M4:M27">_xlfn.SCAN(0,--(C3:C26&lt;=_xlfn.ANCHORARRAY(L4)),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlpm.a+_xlpm.v))</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="18" cm="1">
+        <f t="array" ref="O4:Q27">_xlfn.LET(
+_xlpm.v, _xlfn.SCAN(C3+1,C3:C26,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,MIN(_xlpm.a,_xlpm.v))),
+_xlfn.HSTACK(B3:C26,_xlfn.SCAN(0,--(C3:C26&lt;=_xlpm.v),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlpm.a+_xlpm.v)))
+)</f>
+        <v>45292</v>
+      </c>
+      <c r="P4" s="25">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="b" cm="1">
+        <f t="array" ref="S4:U27">_xlfn.ANCHORARRAY(O4)=G3:I26</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="19">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="H5" s="25">
+        <v>99</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="2">
+        <v>47</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18">
+        <v>45293</v>
+      </c>
+      <c r="P5" s="25">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="H6" s="26">
+        <v>43</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="2">
+        <v>47</v>
+      </c>
+      <c r="M6" s="35">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18">
+        <v>45294</v>
+      </c>
+      <c r="P6" s="25">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="13">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="26">
+        <v>55</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43</v>
+      </c>
+      <c r="M7" s="35">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>45295</v>
+      </c>
+      <c r="P7" s="26">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="13">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="H8" s="26">
+        <v>65</v>
+      </c>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" s="2">
+        <v>43</v>
+      </c>
+      <c r="M8" s="35">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>45296</v>
+      </c>
+      <c r="P8" s="26">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="13">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="H9" s="26">
+        <v>72</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="2">
+        <v>43</v>
+      </c>
+      <c r="M9" s="35">
+        <v>2</v>
+      </c>
+      <c r="O9" s="12">
+        <v>45297</v>
+      </c>
+      <c r="P9" s="26">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="H10" s="26">
+        <v>110</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" s="2">
+        <v>43</v>
+      </c>
+      <c r="M10" s="35">
+        <v>2</v>
+      </c>
+      <c r="O10" s="12">
+        <v>45298</v>
+      </c>
+      <c r="P10" s="26">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="13">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="H11" s="26">
+        <v>106</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" s="2">
+        <v>43</v>
+      </c>
+      <c r="M11" s="35">
+        <v>2</v>
+      </c>
+      <c r="O11" s="12">
+        <v>45299</v>
+      </c>
+      <c r="P11" s="26">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="21">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="H12" s="27">
+        <v>30</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" s="2">
+        <v>43</v>
+      </c>
+      <c r="M12" s="35">
+        <v>2</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" s="12">
+        <v>45300</v>
+      </c>
+      <c r="P12" s="26">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="21">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="H13" s="27">
+        <v>103</v>
+      </c>
+      <c r="I13" s="27">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>30</v>
+      </c>
+      <c r="M13" s="35">
+        <v>3</v>
+      </c>
+      <c r="O13" s="20">
+        <v>45301</v>
+      </c>
+      <c r="P13" s="27">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>3</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="21">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="H14" s="27">
+        <v>100</v>
+      </c>
+      <c r="I14" s="27">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
+      </c>
+      <c r="M14" s="35">
+        <v>3</v>
+      </c>
+      <c r="O14" s="20">
+        <v>45302</v>
+      </c>
+      <c r="P14" s="27">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>3</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="21">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="H15" s="27">
+        <v>85</v>
+      </c>
+      <c r="I15" s="27">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30</v>
+      </c>
+      <c r="M15" s="35">
+        <v>3</v>
+      </c>
+      <c r="O15" s="20">
+        <v>45303</v>
+      </c>
+      <c r="P15" s="27">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>3</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="21">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="H16" s="27">
+        <v>90</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>30</v>
+      </c>
+      <c r="M16" s="35">
+        <v>3</v>
+      </c>
+      <c r="O16" s="20">
+        <v>45304</v>
+      </c>
+      <c r="P16" s="27">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>3</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="21">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="H17" s="27">
+        <v>80</v>
+      </c>
+      <c r="I17" s="27">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>30</v>
+      </c>
+      <c r="M17" s="35">
+        <v>3</v>
+      </c>
+      <c r="O17" s="20">
+        <v>45305</v>
+      </c>
+      <c r="P17" s="27">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>3</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="21">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="H18" s="27">
+        <v>61</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>30</v>
+      </c>
+      <c r="M18" s="35">
+        <v>3</v>
+      </c>
+      <c r="O18" s="20">
+        <v>45306</v>
+      </c>
+      <c r="P18" s="27">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>3</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="23">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="H19" s="28">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>30</v>
+      </c>
+      <c r="M19" s="35">
+        <v>3</v>
+      </c>
+      <c r="O19" s="20">
+        <v>45307</v>
+      </c>
+      <c r="P19" s="27">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>3</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="23">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="H20" s="28">
+        <v>55</v>
+      </c>
+      <c r="I20" s="28">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2">
+        <v>25</v>
+      </c>
+      <c r="M20" s="35">
+        <v>4</v>
+      </c>
+      <c r="O20" s="22">
+        <v>45308</v>
+      </c>
+      <c r="P20" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>4</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="23">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="H21" s="28">
+        <v>52</v>
+      </c>
+      <c r="I21" s="28">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
+        <v>25</v>
+      </c>
+      <c r="M21" s="35">
+        <v>4</v>
+      </c>
+      <c r="O21" s="22">
+        <v>45309</v>
+      </c>
+      <c r="P21" s="28">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>4</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="23">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="H22" s="28">
+        <v>75</v>
+      </c>
+      <c r="I22" s="28">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
+        <v>25</v>
+      </c>
+      <c r="M22" s="35">
+        <v>4</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="22">
+        <v>45310</v>
+      </c>
+      <c r="P22" s="28">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>4</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="23">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="H23" s="28">
+        <v>84</v>
+      </c>
+      <c r="I23" s="28">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>25</v>
+      </c>
+      <c r="M23" s="35">
+        <v>4</v>
+      </c>
+      <c r="O23" s="22">
+        <v>45311</v>
+      </c>
+      <c r="P23" s="28">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>4</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="23">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="H24" s="28">
+        <v>94</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2">
+        <v>25</v>
+      </c>
+      <c r="M24" s="35">
+        <v>4</v>
+      </c>
+      <c r="O24" s="22">
+        <v>45312</v>
+      </c>
+      <c r="P24" s="28">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>4</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="15">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="H25" s="29">
+        <v>18</v>
+      </c>
+      <c r="I25" s="29">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>25</v>
+      </c>
+      <c r="M25" s="35">
+        <v>4</v>
+      </c>
+      <c r="O25" s="22">
+        <v>45313</v>
+      </c>
+      <c r="P25" s="28">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>4</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="17">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="G26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="H26" s="30">
+        <v>105</v>
+      </c>
+      <c r="I26" s="30">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>18</v>
+      </c>
+      <c r="M26" s="35">
+        <v>5</v>
+      </c>
+      <c r="O26" s="14">
+        <v>45314</v>
+      </c>
+      <c r="P26" s="29">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>5</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L27" s="2">
+        <v>18</v>
+      </c>
+      <c r="M27" s="35">
+        <v>5</v>
+      </c>
+      <c r="O27" s="16">
+        <v>45315</v>
+      </c>
+      <c r="P27" s="30">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>5</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-168 Custom Grouping.xlsx
+++ b/CH-168 Custom Grouping.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AA687-2205-4C73-A481-53B93666C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F336F4-FE17-48FB-9D97-DCA976020C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Question</t>
   </si>
@@ -81,6 +83,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>Very nice use of expanding range</t>
   </si>
 </sst>
 </file>
@@ -312,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +398,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1791,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CB0D0-CE2C-4F92-B5C0-350EC7F67489}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,4 +2935,700 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CD192-E5DB-4B76-9529-332B32AF32D1}">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="E1"/>
+      <c r="G1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="19">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="H3" s="25">
+        <v>47</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="19">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="H4" s="25">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="19">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="H5" s="25">
+        <v>99</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="H6" s="26">
+        <v>43</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="13">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="26">
+        <v>55</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="13">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="H8" s="26">
+        <v>65</v>
+      </c>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="13">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="H9" s="26">
+        <v>72</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="H10" s="26">
+        <v>110</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="13">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="H11" s="26">
+        <v>106</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="21">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="H12" s="27">
+        <v>30</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="21">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="H13" s="27">
+        <v>103</v>
+      </c>
+      <c r="I13" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="21">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="H14" s="27">
+        <v>100</v>
+      </c>
+      <c r="I14" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="21">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="H15" s="27">
+        <v>85</v>
+      </c>
+      <c r="I15" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="21">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="H16" s="27">
+        <v>90</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="21">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="H17" s="27">
+        <v>80</v>
+      </c>
+      <c r="I17" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="21">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="H18" s="27">
+        <v>61</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="23">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="H19" s="28">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="23">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="H20" s="28">
+        <v>55</v>
+      </c>
+      <c r="I20" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="23">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="H21" s="28">
+        <v>52</v>
+      </c>
+      <c r="I21" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="23">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="H22" s="28">
+        <v>75</v>
+      </c>
+      <c r="I22" s="28">
+        <v>4</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="23">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="H23" s="28">
+        <v>84</v>
+      </c>
+      <c r="I23" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="23">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="H24" s="28">
+        <v>94</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="15">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="H25" s="29">
+        <v>18</v>
+      </c>
+      <c r="I25" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="17">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="G26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="H26" s="30">
+        <v>105</v>
+      </c>
+      <c r="I26" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" cm="1">
+        <f t="array" ref="B30:B53">_xlfn.SCAN(0,C3:C26,_xlfn.LAMBDA(_xlpm.a,_xlpm.x,_xlpm.a+(_xlpm.x&lt;=MIN(C3:_xlpm.x))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-168 Custom Grouping.xlsx
+++ b/CH-168 Custom Grouping.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F336F4-FE17-48FB-9D97-DCA976020C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FC64B5-155C-41E4-96D9-EEC338A4091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -86,6 +88,21 @@
   </si>
   <si>
     <t>Very nice use of expanding range</t>
+  </si>
+  <si>
+    <t>This is very clever.</t>
+  </si>
+  <si>
+    <t>I like the use of SCAN with an eta MIN</t>
+  </si>
+  <si>
+    <t>The XMATCH is clever. Let's play with that a  bit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basically, he does nothing with the </t>
+  </si>
+  <si>
+    <t>data after the comparisons are done.</t>
   </si>
 </sst>
 </file>
@@ -2941,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CD192-E5DB-4B76-9529-332B32AF32D1}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,4 +3648,1016 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B5A437-44C9-47FE-B1A1-E29D886609F8}">
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="E1"/>
+      <c r="G1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="19">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="18">
+        <v>45292</v>
+      </c>
+      <c r="H3" s="25">
+        <v>47</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="19">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="18">
+        <v>45293</v>
+      </c>
+      <c r="H4" s="25">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="19">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="18">
+        <v>45294</v>
+      </c>
+      <c r="H5" s="25">
+        <v>99</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="12">
+        <v>45295</v>
+      </c>
+      <c r="H6" s="26">
+        <v>43</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="13">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7" s="12">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="26">
+        <v>55</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="13">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8" s="12">
+        <v>45297</v>
+      </c>
+      <c r="H8" s="26">
+        <v>65</v>
+      </c>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="13">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="12">
+        <v>45298</v>
+      </c>
+      <c r="H9" s="26">
+        <v>72</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="H10" s="26">
+        <v>110</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="13">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="H11" s="26">
+        <v>106</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="21">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="20">
+        <v>45301</v>
+      </c>
+      <c r="H12" s="27">
+        <v>30</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="21">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="20">
+        <v>45302</v>
+      </c>
+      <c r="H13" s="27">
+        <v>103</v>
+      </c>
+      <c r="I13" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="21">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="20">
+        <v>45303</v>
+      </c>
+      <c r="H14" s="27">
+        <v>100</v>
+      </c>
+      <c r="I14" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="21">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="20">
+        <v>45304</v>
+      </c>
+      <c r="H15" s="27">
+        <v>85</v>
+      </c>
+      <c r="I15" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="21">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="20">
+        <v>45305</v>
+      </c>
+      <c r="H16" s="27">
+        <v>90</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="21">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="20">
+        <v>45306</v>
+      </c>
+      <c r="H17" s="27">
+        <v>80</v>
+      </c>
+      <c r="I17" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="21">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="20">
+        <v>45307</v>
+      </c>
+      <c r="H18" s="27">
+        <v>61</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="23">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="22">
+        <v>45308</v>
+      </c>
+      <c r="H19" s="28">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="23">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="22">
+        <v>45309</v>
+      </c>
+      <c r="H20" s="28">
+        <v>55</v>
+      </c>
+      <c r="I20" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="23">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="22">
+        <v>45310</v>
+      </c>
+      <c r="H21" s="28">
+        <v>52</v>
+      </c>
+      <c r="I21" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="23">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="22">
+        <v>45311</v>
+      </c>
+      <c r="H22" s="28">
+        <v>75</v>
+      </c>
+      <c r="I22" s="28">
+        <v>4</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="23">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="22">
+        <v>45312</v>
+      </c>
+      <c r="H23" s="28">
+        <v>84</v>
+      </c>
+      <c r="I23" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="23">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="22">
+        <v>45313</v>
+      </c>
+      <c r="H24" s="28">
+        <v>94</v>
+      </c>
+      <c r="I24" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="15">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="14">
+        <v>45314</v>
+      </c>
+      <c r="H25" s="29">
+        <v>18</v>
+      </c>
+      <c r="I25" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="17">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="G26" s="16">
+        <v>45315</v>
+      </c>
+      <c r="H26" s="30">
+        <v>105</v>
+      </c>
+      <c r="I26" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" cm="1">
+        <f t="array" ref="B29:D52">_xlfn.LET(_xlpm.s,_xlfn.SCAN(,C3:C26,_xleta.MIN),_xlfn.HSTACK(B3:C26,_xlfn.XMATCH(_xlpm.s,_xlfn.UNIQUE(_xlpm.s))))</f>
+        <v>45292</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29:I52">_xlfn.SCAN(,C3:C26,_xleta.MIN)</f>
+        <v>47</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29:J33">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(I29))</f>
+        <v>47</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29:K52">_xlfn.XMATCH(_xlfn.ANCHORARRAY(I29),_xlfn.ANCHORARRAY(J29))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>45293</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>47</v>
+      </c>
+      <c r="J30">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>45294</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>47</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>45295</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>45296</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>45297</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>45298</v>
+      </c>
+      <c r="C35">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>45299</v>
+      </c>
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>43</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>45300</v>
+      </c>
+      <c r="C37">
+        <v>106</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>43</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>45301</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>45302</v>
+      </c>
+      <c r="C39">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>45303</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>45304</v>
+      </c>
+      <c r="C41">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>45305</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>45306</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>45307</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>45308</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>45309</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>45310</v>
+      </c>
+      <c r="C47">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>45311</v>
+      </c>
+      <c r="C48">
+        <v>75</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>45312</v>
+      </c>
+      <c r="C49">
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>45313</v>
+      </c>
+      <c r="C50">
+        <v>94</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>45314</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>45315</v>
+      </c>
+      <c r="C52">
+        <v>105</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>